--- a/新增 Microsoft Excel 工作表 (3).xlsx
+++ b/新增 Microsoft Excel 工作表 (3).xlsx
@@ -8,105 +8,138 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C81FE-B569-478C-B5F0-3C794772B8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA321BA-CA4B-478C-A613-BAD7502C605E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>auto reply when QA department Accept the document</t>
-  </si>
-  <si>
-    <t>2. Real time warehouse space planning.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>4. Real time product classification.</t>
   </si>
   <si>
-    <t>6. .</t>
-  </si>
-  <si>
-    <t>ADT : Warehouse Management System : AHO (Idiot).</t>
-  </si>
-  <si>
-    <t>Design、develop、depoly a system to manage task、operator(folklifter)、warehouse and collect data by using tablet and wifi by myself.</t>
-  </si>
-  <si>
     <t>1. Real time task schedule planning and dispatch working instruction to operator.</t>
   </si>
   <si>
-    <t>3. Real time working data collect which are currnet operator status、current task progress rate、current warehouse information.</t>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>. Reduce product seaching and inventory check from 20hr/week to 0.</t>
-    </r>
-  </si>
-  <si>
-    <t>ADT: Special acceptence flow automation</t>
-  </si>
-  <si>
-    <t>make Special accept form flow automate by using VBA marco</t>
-  </si>
-  <si>
-    <t>Auto send mail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto process to next </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publish the </t>
-  </si>
-  <si>
-    <t>ADT: RPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.vba autoamtion </t>
-  </si>
-  <si>
-    <t>1.web parser i.e: xmlhttprequest 、jsonp、python script、php script</t>
-  </si>
-  <si>
-    <t>private solutions to collect data from systems in/outside of company and get data from any type of files.</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>.Sending keyboard and mouse single which is simulate humen action and make it as a script via pthton .</t>
-    </r>
+    <t>2. Real time warehouse field planning.</t>
+  </si>
+  <si>
+    <t>6. Enhaced shipping efficiency more then 30%.</t>
+  </si>
+  <si>
+    <t>ADT/QA department: Special acceptence flow automation.</t>
+  </si>
+  <si>
+    <t>ADT/Produce Management Department : Warehouse Management System : AHO (in English : Idiot).</t>
+  </si>
+  <si>
+    <t>ADT/Business improvement: RPA(Robot Process Automation)</t>
+  </si>
+  <si>
+    <t>Provide different solutions to deal with differecnt scenarios to collect data.
+From manually to one-key complete or auto run at speices time.</t>
+  </si>
+  <si>
+    <t>Design、develop、deploy the AHO system to manage task、operator(folklifter)、warehouse field and collect data by using tablet and wifi.</t>
+  </si>
+  <si>
+    <t>Make 'Special Acceptance application' flow from manually to automate by using excel vba macro.</t>
+  </si>
+  <si>
+    <t>1. Auto send mail.</t>
+  </si>
+  <si>
+    <t>2. Auto generate serial number and put it into the form.</t>
+  </si>
+  <si>
+    <t>3. Auto reply the mail when QA department is approve the form.</t>
+  </si>
+  <si>
+    <t>4. Form will auto transfer to next approver follow the path which was set.</t>
+  </si>
+  <si>
+    <t>5. Publish application form to everyone who need to recive.</t>
+  </si>
+  <si>
+    <t>7. All those items above are finished by myself.</t>
+  </si>
+  <si>
+    <t>3. Real time working data collect e.g., operator status、progress rate、warehouse place rate、item information.</t>
+  </si>
+  <si>
+    <t>5. Reduce 100% of time of product seaching and inventory check.</t>
+  </si>
+  <si>
+    <t>1.web crawler e.g: xmlhttprequest 、jsonp、python script、php script.</t>
+  </si>
+  <si>
+    <t>2.vba macro.</t>
+  </si>
+  <si>
+    <t>6. All those items above are finished by myself.</t>
+  </si>
+  <si>
+    <t>5. All those items above are finished by myself.</t>
+  </si>
+  <si>
+    <t>FormosaSumco/IT department CIM team(12 inch): Special Inspection system upgrade.</t>
+  </si>
+  <si>
+    <t>FormosaSumco/IT department CIM team(12 inch): Particle judge traning system.</t>
+  </si>
+  <si>
+    <t>FormosaSumco/IT department CIM team(12 inch): Carrier Clean system ugrade.</t>
+  </si>
+  <si>
+    <t>FormosaSumco/IT department CIM team(12 inch): System maintain.</t>
+  </si>
+  <si>
+    <t>Upgrade the current special inspection system to handle new inspection items,flows,and further application to deal with customer's request.</t>
+  </si>
+  <si>
+    <t>2..</t>
+  </si>
+  <si>
+    <t>3..</t>
+  </si>
+  <si>
+    <t>4..</t>
+  </si>
+  <si>
+    <t>1..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a system to traning operator to judge partical with same standard. </t>
+  </si>
+  <si>
+    <t>1. Provide periodicity test mode to make sure operator have qualify to judge particle.</t>
+  </si>
+  <si>
+    <t>3. Simulate computer keyboard/mouse input single as scripts put to use in RPA.</t>
+  </si>
+  <si>
+    <t>4. Record controling SAP actions step by step as script.</t>
   </si>
 </sst>
 </file>
@@ -129,13 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +175,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -457,110 +491,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -568,4 +1110,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B5D9D3-DE4D-46D7-B222-970963FABE20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>